--- a/Code/Results/Cases/Case_0_151/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_151/res_line/loading_percent.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.889143076136554</v>
+        <v>6.122469343576001</v>
       </c>
       <c r="D2">
-        <v>2.069641868136137</v>
+        <v>4.180267855248101</v>
       </c>
       <c r="E2">
-        <v>7.159495807818125</v>
+        <v>12.10055612961523</v>
       </c>
       <c r="F2">
-        <v>43.47854441036387</v>
+        <v>58.88169246593258</v>
       </c>
       <c r="G2">
-        <v>2.14952770806652</v>
+        <v>3.81370664019963</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>32.22234096054382</v>
+        <v>44.89219691801183</v>
       </c>
       <c r="J2">
-        <v>6.526878055193174</v>
+        <v>11.33704543409912</v>
       </c>
       <c r="K2">
-        <v>24.27922727138785</v>
+        <v>26.74595557374489</v>
       </c>
       <c r="L2">
-        <v>5.975750856129562</v>
+        <v>10.59323797635611</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.715655968847783</v>
+        <v>6.104175000773907</v>
       </c>
       <c r="D3">
-        <v>2.080105027108985</v>
+        <v>4.168658371637316</v>
       </c>
       <c r="E3">
-        <v>7.046573021592918</v>
+        <v>12.1109545550067</v>
       </c>
       <c r="F3">
-        <v>42.55383709657422</v>
+        <v>58.92316984943575</v>
       </c>
       <c r="G3">
-        <v>2.162131370647639</v>
+        <v>3.818075198294558</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>31.64710666790986</v>
+        <v>44.94553339962354</v>
       </c>
       <c r="J3">
-        <v>6.541760209890469</v>
+        <v>11.36319620910437</v>
       </c>
       <c r="K3">
-        <v>22.89118345224782</v>
+        <v>26.50691985857935</v>
       </c>
       <c r="L3">
-        <v>5.981783107248908</v>
+        <v>10.61470512249857</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.606247543049522</v>
+        <v>6.09367375611464</v>
       </c>
       <c r="D4">
-        <v>2.086874089896148</v>
+        <v>4.16160006536476</v>
       </c>
       <c r="E4">
-        <v>6.980015065060888</v>
+        <v>12.11897750807961</v>
       </c>
       <c r="F4">
-        <v>42.02635493339745</v>
+        <v>58.96310536059362</v>
       </c>
       <c r="G4">
-        <v>2.170025076502792</v>
+        <v>3.82089436713839</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>31.32462820444267</v>
+        <v>44.98878250786377</v>
       </c>
       <c r="J4">
-        <v>6.554109221411718</v>
+        <v>11.38061867545793</v>
       </c>
       <c r="K4">
-        <v>22.01414402036157</v>
+        <v>26.36553396721238</v>
       </c>
       <c r="L4">
-        <v>5.987995921903141</v>
+        <v>10.62904323288335</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.560985704607447</v>
+        <v>6.08958163469481</v>
       </c>
       <c r="D5">
-        <v>2.089712842072221</v>
+        <v>4.158742609013119</v>
       </c>
       <c r="E5">
-        <v>6.953592399104334</v>
+        <v>12.12265945807638</v>
       </c>
       <c r="F5">
-        <v>41.82123312690855</v>
+        <v>58.98300199596405</v>
       </c>
       <c r="G5">
-        <v>2.173284359797237</v>
+        <v>3.822077754193025</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>31.20065817752827</v>
+        <v>45.00903554344015</v>
       </c>
       <c r="J5">
-        <v>6.559920623625349</v>
+        <v>11.38806209132759</v>
       </c>
       <c r="K5">
-        <v>21.65077058541756</v>
+        <v>26.30932809107871</v>
       </c>
       <c r="L5">
-        <v>5.991141445783001</v>
+        <v>10.63517748018583</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.553430731718303</v>
+        <v>6.088913541767963</v>
       </c>
       <c r="D6">
-        <v>2.090188915175657</v>
+        <v>4.15826930691388</v>
       </c>
       <c r="E6">
-        <v>6.949247294735897</v>
+        <v>12.12329577452807</v>
       </c>
       <c r="F6">
-        <v>41.7877576709154</v>
+        <v>58.98652412459798</v>
       </c>
       <c r="G6">
-        <v>2.173828228508291</v>
+        <v>3.822276345702697</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>31.1805142367784</v>
+        <v>45.01255694917364</v>
       </c>
       <c r="J6">
-        <v>6.560931862002606</v>
+        <v>11.38931882399145</v>
       </c>
       <c r="K6">
-        <v>21.5900812120444</v>
+        <v>26.30008190605362</v>
       </c>
       <c r="L6">
-        <v>5.991700344923082</v>
+        <v>10.63621367485425</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.605639795856721</v>
+        <v>6.093617806041173</v>
       </c>
       <c r="D7">
-        <v>2.086912056163867</v>
+        <v>4.161561450638565</v>
       </c>
       <c r="E7">
-        <v>6.979655881520048</v>
+        <v>12.11902549310526</v>
       </c>
       <c r="F7">
-        <v>42.02354918367941</v>
+        <v>58.96335904802304</v>
       </c>
       <c r="G7">
-        <v>2.170068855635744</v>
+        <v>3.820910186625404</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>31.32292654183614</v>
+        <v>44.98904502042191</v>
       </c>
       <c r="J7">
-        <v>6.554184477713533</v>
+        <v>11.38071766843733</v>
       </c>
       <c r="K7">
-        <v>22.00926721798453</v>
+        <v>26.36477017355172</v>
       </c>
       <c r="L7">
-        <v>5.988035880376781</v>
+        <v>10.62912478134374</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.8299502582851</v>
+        <v>6.116011613239538</v>
       </c>
       <c r="D8">
-        <v>2.073173579630459</v>
+        <v>4.176251140797118</v>
       </c>
       <c r="E8">
-        <v>7.119984501052966</v>
+        <v>12.10380184152336</v>
       </c>
       <c r="F8">
-        <v>43.15116308906317</v>
+        <v>58.8929821167393</v>
       </c>
       <c r="G8">
-        <v>2.153843520757933</v>
+        <v>3.815184598455303</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>32.01745588640986</v>
+        <v>44.90840122837378</v>
       </c>
       <c r="J8">
-        <v>6.5313251839088</v>
+        <v>11.34577886183814</v>
       </c>
       <c r="K8">
-        <v>23.805898880193</v>
+        <v>26.66245345800626</v>
       </c>
       <c r="L8">
-        <v>5.977299367673051</v>
+        <v>10.60039989140593</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.2452524863603</v>
+        <v>6.165582507670485</v>
       </c>
       <c r="D9">
-        <v>2.123976781129472</v>
+        <v>4.20555828513172</v>
       </c>
       <c r="E9">
-        <v>7.417206072915664</v>
+        <v>12.08692101381932</v>
       </c>
       <c r="F9">
-        <v>45.69580405754968</v>
+        <v>58.87039825172492</v>
       </c>
       <c r="G9">
-        <v>2.123076625008964</v>
+        <v>3.805036277750079</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>33.63590170950954</v>
+        <v>44.83406032978602</v>
       </c>
       <c r="J9">
-        <v>6.513370810437396</v>
+        <v>11.2880930261111</v>
       </c>
       <c r="K9">
-        <v>27.12571951392189</v>
+        <v>27.28632419827622</v>
       </c>
       <c r="L9">
-        <v>5.976988766671731</v>
+        <v>10.5532363466677</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.533822883408684</v>
+        <v>6.205246512065379</v>
       </c>
       <c r="D10">
-        <v>2.269810511808585</v>
+        <v>4.2273243840406</v>
       </c>
       <c r="E10">
-        <v>7.649231244021528</v>
+        <v>12.08239017987817</v>
       </c>
       <c r="F10">
-        <v>47.78916811150229</v>
+        <v>58.92492484198056</v>
       </c>
       <c r="G10">
-        <v>2.10083033231298</v>
+        <v>3.798229519926387</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>34.99987903658061</v>
+        <v>44.83113868228679</v>
       </c>
       <c r="J10">
-        <v>6.518693684090854</v>
+        <v>11.25230262861282</v>
       </c>
       <c r="K10">
-        <v>29.43781232127534</v>
+        <v>27.7655202403142</v>
       </c>
       <c r="L10">
-        <v>5.990681432337459</v>
+        <v>10.52415170388368</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.661352974225409</v>
+        <v>6.223949562169937</v>
       </c>
       <c r="D11">
-        <v>2.334968734722334</v>
+        <v>4.23726231481748</v>
       </c>
       <c r="E11">
-        <v>7.757881303346078</v>
+        <v>12.08202909043969</v>
       </c>
       <c r="F11">
-        <v>48.79544123183592</v>
+        <v>58.96529574587767</v>
       </c>
       <c r="G11">
-        <v>2.090713642839604</v>
+        <v>3.795272013150766</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>35.66293479325</v>
+        <v>44.8411437976658</v>
       </c>
       <c r="J11">
-        <v>6.525673580959614</v>
+        <v>11.23744981341041</v>
       </c>
       <c r="K11">
-        <v>30.5438040025323</v>
+        <v>27.98724480825391</v>
       </c>
       <c r="L11">
-        <v>6.000253784416194</v>
+        <v>10.5121245489294</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.709105444599475</v>
+        <v>6.231122768595449</v>
       </c>
       <c r="D12">
-        <v>2.359501667745292</v>
+        <v>4.241029522463126</v>
       </c>
       <c r="E12">
-        <v>7.799488149709835</v>
+        <v>12.08213589815161</v>
       </c>
       <c r="F12">
-        <v>49.18479524233921</v>
+        <v>58.98282813954114</v>
       </c>
       <c r="G12">
-        <v>2.086875935199127</v>
+        <v>3.794171911805047</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>35.92058038216381</v>
+        <v>44.84656923462067</v>
       </c>
       <c r="J12">
-        <v>6.529023510694384</v>
+        <v>11.23203069386163</v>
       </c>
       <c r="K12">
-        <v>30.97006745330433</v>
+        <v>28.07167512739879</v>
       </c>
       <c r="L12">
-        <v>6.004389815480103</v>
+        <v>10.50774289821442</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.698845076737925</v>
+        <v>6.229573919418572</v>
       </c>
       <c r="D13">
-        <v>2.35422378954235</v>
+        <v>4.240218032856</v>
       </c>
       <c r="E13">
-        <v>7.790506398656779</v>
+        <v>12.0821020788352</v>
       </c>
       <c r="F13">
-        <v>49.10056202130117</v>
+        <v>58.97895230677776</v>
       </c>
       <c r="G13">
-        <v>2.087702880274801</v>
+        <v>3.794407957959762</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>35.86479224331094</v>
+        <v>44.84532787932199</v>
       </c>
       <c r="J13">
-        <v>6.528269722621773</v>
+        <v>11.23318866792595</v>
       </c>
       <c r="K13">
-        <v>30.87851200072794</v>
+        <v>28.05347183455362</v>
       </c>
       <c r="L13">
-        <v>6.003475786766447</v>
+        <v>10.50867888585247</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.665292412323971</v>
+        <v>6.224537910812717</v>
       </c>
       <c r="D14">
-        <v>2.336989707048949</v>
+        <v>4.237572173963823</v>
       </c>
       <c r="E14">
-        <v>7.761294908318055</v>
+        <v>12.08203300207822</v>
       </c>
       <c r="F14">
-        <v>48.82730381263162</v>
+        <v>58.96669312799072</v>
       </c>
       <c r="G14">
-        <v>2.090398092485699</v>
+        <v>3.795181110252409</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>35.68399719558975</v>
+        <v>44.84155731421928</v>
       </c>
       <c r="J14">
-        <v>6.525934699795035</v>
+        <v>11.23699986476355</v>
       </c>
       <c r="K14">
-        <v>30.57898530725017</v>
+        <v>27.99418195811005</v>
       </c>
       <c r="L14">
-        <v>6.000583625467669</v>
+        <v>10.51176060702233</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.644670135663858</v>
+        <v>6.221464907775164</v>
       </c>
       <c r="D15">
-        <v>2.326415956272446</v>
+        <v>4.235951982046175</v>
       </c>
       <c r="E15">
-        <v>7.743463028122211</v>
+        <v>12.08202237886026</v>
       </c>
       <c r="F15">
-        <v>48.66102395501635</v>
+        <v>58.9594765212567</v>
       </c>
       <c r="G15">
-        <v>2.092047878182102</v>
+        <v>3.795657268419493</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>35.57412364007382</v>
+        <v>44.83946106692684</v>
       </c>
       <c r="J15">
-        <v>6.524598107499857</v>
+        <v>11.23936106899338</v>
       </c>
       <c r="K15">
-        <v>30.39478340739303</v>
+        <v>27.95792409276973</v>
       </c>
       <c r="L15">
-        <v>5.998879631914664</v>
+        <v>10.51367074120423</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.525412803018856</v>
+        <v>6.204037150231121</v>
       </c>
       <c r="D16">
-        <v>2.265530774854189</v>
+        <v>4.226675537660381</v>
       </c>
       <c r="E16">
-        <v>7.642194435139063</v>
+        <v>12.08244790990897</v>
       </c>
       <c r="F16">
-        <v>47.72453573207634</v>
+        <v>58.92260033693082</v>
       </c>
       <c r="G16">
-        <v>2.101490955296096</v>
+        <v>3.798425583905003</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>34.95743943832105</v>
+        <v>44.83071351180612</v>
       </c>
       <c r="J16">
-        <v>6.518333502681487</v>
+        <v>11.2533020310698</v>
       </c>
       <c r="K16">
-        <v>29.370288416426</v>
+        <v>27.75109928598964</v>
       </c>
       <c r="L16">
-        <v>5.990125650929475</v>
+        <v>10.52496190019363</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.451289558625704</v>
+        <v>6.193511861228632</v>
       </c>
       <c r="D17">
-        <v>2.227895048960267</v>
+        <v>4.220993133226798</v>
       </c>
       <c r="E17">
-        <v>7.580873835568447</v>
+        <v>12.0831437446772</v>
       </c>
       <c r="F17">
-        <v>47.16420901316803</v>
+        <v>58.9039701211044</v>
       </c>
       <c r="G17">
-        <v>2.107280009196235</v>
+        <v>3.800159341151098</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>34.59031943019024</v>
+        <v>44.82825539102582</v>
       </c>
       <c r="J17">
-        <v>6.515692482299111</v>
+        <v>11.2622201501156</v>
       </c>
       <c r="K17">
-        <v>28.7755792352442</v>
+        <v>27.62512668954966</v>
       </c>
       <c r="L17">
-        <v>5.985632208105414</v>
+        <v>10.53219671394379</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.408303221580551</v>
+        <v>6.187520337640097</v>
       </c>
       <c r="D18">
-        <v>2.206134515036592</v>
+        <v>4.217728270312873</v>
       </c>
       <c r="E18">
-        <v>7.545894253574721</v>
+        <v>12.08370404272795</v>
       </c>
       <c r="F18">
-        <v>46.84696840560456</v>
+        <v>58.8947194538265</v>
       </c>
       <c r="G18">
-        <v>2.11061051534899</v>
+        <v>3.801169636436921</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>34.38313943218797</v>
+        <v>44.82790803549138</v>
       </c>
       <c r="J18">
-        <v>6.514599094263847</v>
+        <v>11.26748407062819</v>
       </c>
       <c r="K18">
-        <v>28.4310076432172</v>
+        <v>27.55302639313048</v>
       </c>
       <c r="L18">
-        <v>5.98336038391871</v>
+        <v>10.53647129369024</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.393688433712939</v>
+        <v>6.185502541850372</v>
       </c>
       <c r="D19">
-        <v>2.198746529061559</v>
+        <v>4.216623486048238</v>
       </c>
       <c r="E19">
-        <v>7.53410022720024</v>
+        <v>12.08392126927092</v>
       </c>
       <c r="F19">
-        <v>46.74040789373284</v>
+        <v>58.89183871396057</v>
       </c>
       <c r="G19">
-        <v>2.111738506845605</v>
+        <v>3.801513956345297</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>34.31366275100103</v>
+        <v>44.82797336875859</v>
       </c>
       <c r="J19">
-        <v>6.514300535990472</v>
+        <v>11.2692894389352</v>
       </c>
       <c r="K19">
-        <v>28.31390616354421</v>
+        <v>27.52867768547923</v>
       </c>
       <c r="L19">
-        <v>5.982644020136605</v>
+        <v>10.53793806263944</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.459216641523849</v>
+        <v>6.194625873230758</v>
       </c>
       <c r="D20">
-        <v>2.231912994003698</v>
+        <v>4.221597681559722</v>
       </c>
       <c r="E20">
-        <v>7.587371358326475</v>
+        <v>12.08305311140504</v>
       </c>
       <c r="F20">
-        <v>47.22333110804946</v>
+        <v>58.90580167106546</v>
       </c>
       <c r="G20">
-        <v>2.106663721051107</v>
+        <v>3.799973426566598</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>34.62898534534295</v>
+        <v>44.82840663095791</v>
       </c>
       <c r="J20">
-        <v>6.515929217846122</v>
+        <v>11.26125688623588</v>
       </c>
       <c r="K20">
-        <v>28.8391458107204</v>
+        <v>27.63850036299001</v>
       </c>
       <c r="L20">
-        <v>5.986077972570061</v>
+        <v>10.53141483110818</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.675162286012842</v>
+        <v>6.226014678257673</v>
       </c>
       <c r="D21">
-        <v>2.342055333295316</v>
+        <v>4.238349230592055</v>
       </c>
       <c r="E21">
-        <v>7.769862276301049</v>
+        <v>12.08204668952036</v>
       </c>
       <c r="F21">
-        <v>48.90733629263689</v>
+        <v>58.97023298192025</v>
       </c>
       <c r="G21">
-        <v>2.08960668898995</v>
+        <v>3.794953479238393</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>35.73691917456591</v>
+        <v>44.84262035161827</v>
       </c>
       <c r="J21">
-        <v>6.526600929710311</v>
+        <v>11.23587485223335</v>
       </c>
       <c r="K21">
-        <v>30.66711562006278</v>
+        <v>28.01158468178213</v>
       </c>
       <c r="L21">
-        <v>6.001418988594231</v>
+        <v>10.51085074425375</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.813150342169068</v>
+        <v>6.247056183890528</v>
       </c>
       <c r="D22">
-        <v>2.413236806952187</v>
+        <v>4.249319639628172</v>
       </c>
       <c r="E22">
-        <v>7.891845780708072</v>
+        <v>12.08280802251081</v>
       </c>
       <c r="F22">
-        <v>50.05664430241272</v>
+        <v>59.02542853098392</v>
       </c>
       <c r="G22">
-        <v>2.078415495877056</v>
+        <v>3.791788247267879</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>36.49951879795765</v>
+        <v>44.86145222921675</v>
       </c>
       <c r="J22">
-        <v>6.537723920282688</v>
+        <v>11.22048294493385</v>
       </c>
       <c r="K22">
-        <v>31.89761386899158</v>
+        <v>28.25811280974521</v>
       </c>
       <c r="L22">
-        <v>6.014441836092275</v>
+        <v>10.4984178303863</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.739789828304366</v>
+        <v>6.235779079294132</v>
       </c>
       <c r="D23">
-        <v>2.375307688350776</v>
+        <v>4.24346291399717</v>
       </c>
       <c r="E23">
-        <v>7.82648459351871</v>
+        <v>12.0822721590594</v>
       </c>
       <c r="F23">
-        <v>49.43857267197982</v>
+        <v>58.99477068845292</v>
       </c>
       <c r="G23">
-        <v>2.084395095820971</v>
+        <v>3.793467058652782</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>36.08881749248349</v>
+        <v>44.85052620717773</v>
       </c>
       <c r="J23">
-        <v>6.531389106000008</v>
+        <v>11.22858842333816</v>
       </c>
       <c r="K23">
-        <v>31.24376992335559</v>
+        <v>28.12631230627234</v>
       </c>
       <c r="L23">
-        <v>6.007206029660574</v>
+        <v>10.50496147885105</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.455633965426482</v>
+        <v>6.194122042438396</v>
       </c>
       <c r="D24">
-        <v>2.230096867028894</v>
+        <v>4.22132435884555</v>
       </c>
       <c r="E24">
-        <v>7.584432974655907</v>
+        <v>12.08309358748543</v>
       </c>
       <c r="F24">
-        <v>47.19658678968345</v>
+        <v>58.90496907997389</v>
       </c>
       <c r="G24">
-        <v>2.106942337222625</v>
+        <v>3.800057436380978</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>34.61149242512566</v>
+        <v>44.82833493603162</v>
       </c>
       <c r="J24">
-        <v>6.515820869817333</v>
+        <v>11.26169195180519</v>
       </c>
       <c r="K24">
-        <v>28.81041567676627</v>
+        <v>27.63245311382621</v>
       </c>
       <c r="L24">
-        <v>5.985875474403039</v>
+        <v>10.53176796152722</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.135728382647507</v>
+        <v>6.151587322977268</v>
       </c>
       <c r="D25">
-        <v>2.069072797435522</v>
+        <v>4.197583694429017</v>
       </c>
       <c r="E25">
-        <v>7.334429150374948</v>
+        <v>12.090102457324</v>
       </c>
       <c r="F25">
-        <v>44.96971090308628</v>
+        <v>58.86406559098685</v>
       </c>
       <c r="G25">
-        <v>2.131314450175459</v>
+        <v>3.80766701675677</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>33.16876793802319</v>
+        <v>44.84513293839549</v>
       </c>
       <c r="J25">
-        <v>6.515143712115876</v>
+        <v>11.30254032045498</v>
       </c>
       <c r="K25">
-        <v>26.25000245282834</v>
+        <v>27.11362304759333</v>
       </c>
       <c r="L25">
-        <v>5.974727694354127</v>
+        <v>10.56501627319551</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_151/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_151/res_line/loading_percent.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.122469343576001</v>
+        <v>3.889143076136416</v>
       </c>
       <c r="D2">
-        <v>4.180267855248101</v>
+        <v>2.069641868136441</v>
       </c>
       <c r="E2">
-        <v>12.10055612961523</v>
+        <v>7.15949580781807</v>
       </c>
       <c r="F2">
-        <v>58.88169246593258</v>
+        <v>43.47854441036378</v>
       </c>
       <c r="G2">
-        <v>3.81370664019963</v>
+        <v>2.14952770806625</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>44.89219691801183</v>
+        <v>32.22234096054378</v>
       </c>
       <c r="J2">
-        <v>11.33704543409912</v>
+        <v>6.526878055193247</v>
       </c>
       <c r="K2">
-        <v>26.74595557374489</v>
+        <v>24.27922727138786</v>
       </c>
       <c r="L2">
-        <v>10.59323797635611</v>
+        <v>5.975750856129544</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.104175000773907</v>
+        <v>3.7156559688479</v>
       </c>
       <c r="D3">
-        <v>4.168658371637316</v>
+        <v>2.080105027108914</v>
       </c>
       <c r="E3">
-        <v>12.1109545550067</v>
+        <v>7.046573021592872</v>
       </c>
       <c r="F3">
-        <v>58.92316984943575</v>
+        <v>42.55383709657444</v>
       </c>
       <c r="G3">
-        <v>3.818075198294558</v>
+        <v>2.162131370647643</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>44.94553339962354</v>
+        <v>31.64710666791007</v>
       </c>
       <c r="J3">
-        <v>11.36319620910437</v>
+        <v>6.541760209890454</v>
       </c>
       <c r="K3">
-        <v>26.50691985857935</v>
+        <v>22.89118345224787</v>
       </c>
       <c r="L3">
-        <v>10.61470512249857</v>
+        <v>5.981783107248831</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.09367375611464</v>
+        <v>3.606247543049468</v>
       </c>
       <c r="D4">
-        <v>4.16160006536476</v>
+        <v>2.086874089896201</v>
       </c>
       <c r="E4">
-        <v>12.11897750807961</v>
+        <v>6.980015065060831</v>
       </c>
       <c r="F4">
-        <v>58.96310536059362</v>
+        <v>42.02635493339735</v>
       </c>
       <c r="G4">
-        <v>3.82089436713839</v>
+        <v>2.17002507650253</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>44.98878250786377</v>
+        <v>31.32462820444254</v>
       </c>
       <c r="J4">
-        <v>11.38061867545793</v>
+        <v>6.554109221411661</v>
       </c>
       <c r="K4">
-        <v>26.36553396721238</v>
+        <v>22.01414402036155</v>
       </c>
       <c r="L4">
-        <v>10.62904323288335</v>
+        <v>5.987995921903202</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.08958163469481</v>
+        <v>3.560985704607547</v>
       </c>
       <c r="D5">
-        <v>4.158742609013119</v>
+        <v>2.089712842072033</v>
       </c>
       <c r="E5">
-        <v>12.12265945807638</v>
+        <v>6.953592399104333</v>
       </c>
       <c r="F5">
-        <v>58.98300199596405</v>
+        <v>41.82123312690863</v>
       </c>
       <c r="G5">
-        <v>3.822077754193025</v>
+        <v>2.173284359797232</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>45.00903554344015</v>
+        <v>31.2006581775283</v>
       </c>
       <c r="J5">
-        <v>11.38806209132759</v>
+        <v>6.559920623625263</v>
       </c>
       <c r="K5">
-        <v>26.30932809107871</v>
+        <v>21.65077058541753</v>
       </c>
       <c r="L5">
-        <v>10.63517748018583</v>
+        <v>5.99114144578289</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.088913541767963</v>
+        <v>3.553430731718288</v>
       </c>
       <c r="D6">
-        <v>4.15826930691388</v>
+        <v>2.090188915175772</v>
       </c>
       <c r="E6">
-        <v>12.12329577452807</v>
+        <v>6.949247294735756</v>
       </c>
       <c r="F6">
-        <v>58.98652412459798</v>
+        <v>41.78775767091508</v>
       </c>
       <c r="G6">
-        <v>3.822276345702697</v>
+        <v>2.173828228507761</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>45.01255694917364</v>
+        <v>31.18051423677817</v>
       </c>
       <c r="J6">
-        <v>11.38931882399145</v>
+        <v>6.560931862002556</v>
       </c>
       <c r="K6">
-        <v>26.30008190605362</v>
+        <v>21.59008121204433</v>
       </c>
       <c r="L6">
-        <v>10.63621367485425</v>
+        <v>5.991700344922942</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.093617806041173</v>
+        <v>3.605639795856636</v>
       </c>
       <c r="D7">
-        <v>4.161561450638565</v>
+        <v>2.08691205616398</v>
       </c>
       <c r="E7">
-        <v>12.11902549310526</v>
+        <v>6.979655881519998</v>
       </c>
       <c r="F7">
-        <v>58.96335904802304</v>
+        <v>42.02354918367917</v>
       </c>
       <c r="G7">
-        <v>3.820910186625404</v>
+        <v>2.170068855635875</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>44.98904502042191</v>
+        <v>31.32292654183598</v>
       </c>
       <c r="J7">
-        <v>11.38071766843733</v>
+        <v>6.554184477713508</v>
       </c>
       <c r="K7">
-        <v>26.36477017355172</v>
+        <v>22.00926721798447</v>
       </c>
       <c r="L7">
-        <v>10.62912478134374</v>
+        <v>5.988035880376697</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.116011613239538</v>
+        <v>3.829950258284957</v>
       </c>
       <c r="D8">
-        <v>4.176251140797118</v>
+        <v>2.073173579630589</v>
       </c>
       <c r="E8">
-        <v>12.10380184152336</v>
+        <v>7.119984501052892</v>
       </c>
       <c r="F8">
-        <v>58.8929821167393</v>
+        <v>43.15116308906284</v>
       </c>
       <c r="G8">
-        <v>3.815184598455303</v>
+        <v>2.153843520757397</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>44.90840122837378</v>
+        <v>32.01745588640956</v>
       </c>
       <c r="J8">
-        <v>11.34577886183814</v>
+        <v>6.531325183908751</v>
       </c>
       <c r="K8">
-        <v>26.66245345800626</v>
+        <v>23.80589888019295</v>
       </c>
       <c r="L8">
-        <v>10.60039989140593</v>
+        <v>5.977299367673024</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.165582507670485</v>
+        <v>4.24525248636044</v>
       </c>
       <c r="D9">
-        <v>4.20555828513172</v>
+        <v>2.123976781129612</v>
       </c>
       <c r="E9">
-        <v>12.08692101381932</v>
+        <v>7.417206072915623</v>
       </c>
       <c r="F9">
-        <v>58.87039825172492</v>
+        <v>45.69580405754968</v>
       </c>
       <c r="G9">
-        <v>3.805036277750079</v>
+        <v>2.123076625009629</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>44.83406032978602</v>
+        <v>33.63590170950953</v>
       </c>
       <c r="J9">
-        <v>11.2880930261111</v>
+        <v>6.51337081043729</v>
       </c>
       <c r="K9">
-        <v>27.28632419827622</v>
+        <v>27.12571951392188</v>
       </c>
       <c r="L9">
-        <v>10.5532363466677</v>
+        <v>5.976988766671631</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.205246512065379</v>
+        <v>4.533822883408775</v>
       </c>
       <c r="D10">
-        <v>4.2273243840406</v>
+        <v>2.269810511808553</v>
       </c>
       <c r="E10">
-        <v>12.08239017987817</v>
+        <v>7.649231244021561</v>
       </c>
       <c r="F10">
-        <v>58.92492484198056</v>
+        <v>47.78916811150231</v>
       </c>
       <c r="G10">
-        <v>3.798229519926387</v>
+        <v>2.100830332312982</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>44.83113868228679</v>
+        <v>34.99987903658069</v>
       </c>
       <c r="J10">
-        <v>11.25230262861282</v>
+        <v>6.518693684090944</v>
       </c>
       <c r="K10">
-        <v>27.7655202403142</v>
+        <v>29.43781232127534</v>
       </c>
       <c r="L10">
-        <v>10.52415170388368</v>
+        <v>5.990681432337404</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.223949562169937</v>
+        <v>4.661352974225291</v>
       </c>
       <c r="D11">
-        <v>4.23726231481748</v>
+        <v>2.334968734722191</v>
       </c>
       <c r="E11">
-        <v>12.08202909043969</v>
+        <v>7.757881303345972</v>
       </c>
       <c r="F11">
-        <v>58.96529574587767</v>
+        <v>48.79544123183585</v>
       </c>
       <c r="G11">
-        <v>3.795272013150766</v>
+        <v>2.090713642839466</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>44.8411437976658</v>
+        <v>35.66293479324995</v>
       </c>
       <c r="J11">
-        <v>11.23744981341041</v>
+        <v>6.52567358095954</v>
       </c>
       <c r="K11">
-        <v>27.98724480825391</v>
+        <v>30.54380400253234</v>
       </c>
       <c r="L11">
-        <v>10.5121245489294</v>
+        <v>6.000253784416096</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.231122768595449</v>
+        <v>4.709105444599417</v>
       </c>
       <c r="D12">
-        <v>4.241029522463126</v>
+        <v>2.359501667745292</v>
       </c>
       <c r="E12">
-        <v>12.08213589815161</v>
+        <v>7.799488149709894</v>
       </c>
       <c r="F12">
-        <v>58.98282813954114</v>
+        <v>49.18479524233919</v>
       </c>
       <c r="G12">
-        <v>3.794171911805047</v>
+        <v>2.086875935198997</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>44.84656923462067</v>
+        <v>35.92058038216378</v>
       </c>
       <c r="J12">
-        <v>11.23203069386163</v>
+        <v>6.529023510694393</v>
       </c>
       <c r="K12">
-        <v>28.07167512739879</v>
+        <v>30.97006745330435</v>
       </c>
       <c r="L12">
-        <v>10.50774289821442</v>
+        <v>6.004389815480176</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.229573919418572</v>
+        <v>4.698845076737852</v>
       </c>
       <c r="D13">
-        <v>4.240218032856</v>
+        <v>2.35422378954225</v>
       </c>
       <c r="E13">
-        <v>12.0821020788352</v>
+        <v>7.790506398656732</v>
       </c>
       <c r="F13">
-        <v>58.97895230677776</v>
+        <v>49.10056202130117</v>
       </c>
       <c r="G13">
-        <v>3.794407957959762</v>
+        <v>2.087702880274942</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>44.84532787932199</v>
+        <v>35.86479224331096</v>
       </c>
       <c r="J13">
-        <v>11.23318866792595</v>
+        <v>6.528269722621767</v>
       </c>
       <c r="K13">
-        <v>28.05347183455362</v>
+        <v>30.87851200072796</v>
       </c>
       <c r="L13">
-        <v>10.50867888585247</v>
+        <v>6.003475786766408</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.224537910812717</v>
+        <v>4.665292412324002</v>
       </c>
       <c r="D14">
-        <v>4.237572173963823</v>
+        <v>2.336989707048949</v>
       </c>
       <c r="E14">
-        <v>12.08203300207822</v>
+        <v>7.761294908318099</v>
       </c>
       <c r="F14">
-        <v>58.96669312799072</v>
+        <v>48.82730381263161</v>
       </c>
       <c r="G14">
-        <v>3.795181110252409</v>
+        <v>2.090398092485704</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>44.84155731421928</v>
+        <v>35.68399719558978</v>
       </c>
       <c r="J14">
-        <v>11.23699986476355</v>
+        <v>6.525934699795072</v>
       </c>
       <c r="K14">
-        <v>27.99418195811005</v>
+        <v>30.57898530725013</v>
       </c>
       <c r="L14">
-        <v>10.51176060702233</v>
+        <v>6.00058362546765</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.221464907775164</v>
+        <v>4.644670135663874</v>
       </c>
       <c r="D15">
-        <v>4.235951982046175</v>
+        <v>2.326415956272464</v>
       </c>
       <c r="E15">
-        <v>12.08202237886026</v>
+        <v>7.743463028122216</v>
       </c>
       <c r="F15">
-        <v>58.9594765212567</v>
+        <v>48.66102395501629</v>
       </c>
       <c r="G15">
-        <v>3.795657268419493</v>
+        <v>2.092047878182237</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>44.83946106692684</v>
+        <v>35.57412364007381</v>
       </c>
       <c r="J15">
-        <v>11.23936106899338</v>
+        <v>6.52459810749985</v>
       </c>
       <c r="K15">
-        <v>27.95792409276973</v>
+        <v>30.39478340739302</v>
       </c>
       <c r="L15">
-        <v>10.51367074120423</v>
+        <v>5.998879631914645</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.204037150231121</v>
+        <v>4.525412803018795</v>
       </c>
       <c r="D16">
-        <v>4.226675537660381</v>
+        <v>2.265530774854232</v>
       </c>
       <c r="E16">
-        <v>12.08244790990897</v>
+        <v>7.64219443513898</v>
       </c>
       <c r="F16">
-        <v>58.92260033693082</v>
+        <v>47.72453573207641</v>
       </c>
       <c r="G16">
-        <v>3.798425583905003</v>
+        <v>2.101490955295835</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>44.83071351180612</v>
+        <v>34.95743943832111</v>
       </c>
       <c r="J16">
-        <v>11.2533020310698</v>
+        <v>6.518333502681431</v>
       </c>
       <c r="K16">
-        <v>27.75109928598964</v>
+        <v>29.37028841642601</v>
       </c>
       <c r="L16">
-        <v>10.52496190019363</v>
+        <v>5.990125650929414</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.193511861228632</v>
+        <v>4.451289558625721</v>
       </c>
       <c r="D17">
-        <v>4.220993133226798</v>
+        <v>2.227895048960153</v>
       </c>
       <c r="E17">
-        <v>12.0831437446772</v>
+        <v>7.580873835568436</v>
       </c>
       <c r="F17">
-        <v>58.9039701211044</v>
+        <v>47.16420901316808</v>
       </c>
       <c r="G17">
-        <v>3.800159341151098</v>
+        <v>2.107280009196637</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>44.82825539102582</v>
+        <v>34.59031943019033</v>
       </c>
       <c r="J17">
-        <v>11.2622201501156</v>
+        <v>6.515692482299137</v>
       </c>
       <c r="K17">
-        <v>27.62512668954966</v>
+        <v>28.77557923524421</v>
       </c>
       <c r="L17">
-        <v>10.53219671394379</v>
+        <v>5.985632208105362</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.187520337640097</v>
+        <v>4.408303221580632</v>
       </c>
       <c r="D18">
-        <v>4.217728270312873</v>
+        <v>2.206134515036681</v>
       </c>
       <c r="E18">
-        <v>12.08370404272795</v>
+        <v>7.545894253574746</v>
       </c>
       <c r="F18">
-        <v>58.8947194538265</v>
+        <v>46.84696840560454</v>
       </c>
       <c r="G18">
-        <v>3.801169636436921</v>
+        <v>2.11061051534899</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>44.82790803549138</v>
+        <v>34.38313943218796</v>
       </c>
       <c r="J18">
-        <v>11.26748407062819</v>
+        <v>6.514599094263822</v>
       </c>
       <c r="K18">
-        <v>27.55302639313048</v>
+        <v>28.4310076432172</v>
       </c>
       <c r="L18">
-        <v>10.53647129369024</v>
+        <v>5.98336038391868</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.185502541850372</v>
+        <v>4.39368843371294</v>
       </c>
       <c r="D19">
-        <v>4.216623486048238</v>
+        <v>2.198746529061476</v>
       </c>
       <c r="E19">
-        <v>12.08392126927092</v>
+        <v>7.534100227200284</v>
       </c>
       <c r="F19">
-        <v>58.89183871396057</v>
+        <v>46.74040789373277</v>
       </c>
       <c r="G19">
-        <v>3.801513956345297</v>
+        <v>2.111738506845608</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>44.82797336875859</v>
+        <v>34.313662751001</v>
       </c>
       <c r="J19">
-        <v>11.2692894389352</v>
+        <v>6.514300535990539</v>
       </c>
       <c r="K19">
-        <v>27.52867768547923</v>
+        <v>28.31390616354421</v>
       </c>
       <c r="L19">
-        <v>10.53793806263944</v>
+        <v>5.982644020136656</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.194625873230758</v>
+        <v>4.459216641523991</v>
       </c>
       <c r="D20">
-        <v>4.221597681559722</v>
+        <v>2.231912994003698</v>
       </c>
       <c r="E20">
-        <v>12.08305311140504</v>
+        <v>7.587371358326496</v>
       </c>
       <c r="F20">
-        <v>58.90580167106546</v>
+        <v>47.22333110804942</v>
       </c>
       <c r="G20">
-        <v>3.799973426566598</v>
+        <v>2.106663721051377</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>44.82840663095791</v>
+        <v>34.62898534534295</v>
       </c>
       <c r="J20">
-        <v>11.26125688623588</v>
+        <v>6.515929217846154</v>
       </c>
       <c r="K20">
-        <v>27.63850036299001</v>
+        <v>28.8391458107204</v>
       </c>
       <c r="L20">
-        <v>10.53141483110818</v>
+        <v>5.986077972569976</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.226014678257673</v>
+        <v>4.675162286012772</v>
       </c>
       <c r="D21">
-        <v>4.238349230592055</v>
+        <v>2.34205533329536</v>
       </c>
       <c r="E21">
-        <v>12.08204668952036</v>
+        <v>7.769862276301057</v>
       </c>
       <c r="F21">
-        <v>58.97023298192025</v>
+        <v>48.90733629263699</v>
       </c>
       <c r="G21">
-        <v>3.794953479238393</v>
+        <v>2.089606688989949</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>44.84262035161827</v>
+        <v>35.73691917456595</v>
       </c>
       <c r="J21">
-        <v>11.23587485223335</v>
+        <v>6.526600929710247</v>
       </c>
       <c r="K21">
-        <v>28.01158468178213</v>
+        <v>30.66711562006277</v>
       </c>
       <c r="L21">
-        <v>10.51085074425375</v>
+        <v>6.001418988594201</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.247056183890528</v>
+        <v>4.813150342169108</v>
       </c>
       <c r="D22">
-        <v>4.249319639628172</v>
+        <v>2.413236806952131</v>
       </c>
       <c r="E22">
-        <v>12.08280802251081</v>
+        <v>7.891845780707972</v>
       </c>
       <c r="F22">
-        <v>59.02542853098392</v>
+        <v>50.05664430241282</v>
       </c>
       <c r="G22">
-        <v>3.791788247267879</v>
+        <v>2.078415495876667</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>44.86145222921675</v>
+        <v>36.49951879795773</v>
       </c>
       <c r="J22">
-        <v>11.22048294493385</v>
+        <v>6.537723920282655</v>
       </c>
       <c r="K22">
-        <v>28.25811280974521</v>
+        <v>31.89761386899164</v>
       </c>
       <c r="L22">
-        <v>10.4984178303863</v>
+        <v>6.014441836092145</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.235779079294132</v>
+        <v>4.739789828304292</v>
       </c>
       <c r="D23">
-        <v>4.24346291399717</v>
+        <v>2.37530768835059</v>
       </c>
       <c r="E23">
-        <v>12.0822721590594</v>
+        <v>7.826484593518615</v>
       </c>
       <c r="F23">
-        <v>58.99477068845292</v>
+        <v>49.43857267197976</v>
       </c>
       <c r="G23">
-        <v>3.793467058652782</v>
+        <v>2.084395095820573</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>44.85052620717773</v>
+        <v>36.08881749248341</v>
       </c>
       <c r="J23">
-        <v>11.22858842333816</v>
+        <v>6.531389106000063</v>
       </c>
       <c r="K23">
-        <v>28.12631230627234</v>
+        <v>31.24376992335575</v>
       </c>
       <c r="L23">
-        <v>10.50496147885105</v>
+        <v>6.007206029660586</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.194122042438396</v>
+        <v>4.455633965426419</v>
       </c>
       <c r="D24">
-        <v>4.22132435884555</v>
+        <v>2.2300968670289</v>
       </c>
       <c r="E24">
-        <v>12.08309358748543</v>
+        <v>7.584432974655932</v>
       </c>
       <c r="F24">
-        <v>58.90496907997389</v>
+        <v>47.19658678968342</v>
       </c>
       <c r="G24">
-        <v>3.800057436380978</v>
+        <v>2.106942337222751</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>44.82833493603162</v>
+        <v>34.61149242512563</v>
       </c>
       <c r="J24">
-        <v>11.26169195180519</v>
+        <v>6.515820869817368</v>
       </c>
       <c r="K24">
-        <v>27.63245311382621</v>
+        <v>28.81041567676628</v>
       </c>
       <c r="L24">
-        <v>10.53176796152722</v>
+        <v>5.985875474403067</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.151587322977268</v>
+        <v>4.135728382647483</v>
       </c>
       <c r="D25">
-        <v>4.197583694429017</v>
+        <v>2.069072797435522</v>
       </c>
       <c r="E25">
-        <v>12.090102457324</v>
+        <v>7.334429150374996</v>
       </c>
       <c r="F25">
-        <v>58.86406559098685</v>
+        <v>44.96971090308629</v>
       </c>
       <c r="G25">
-        <v>3.80766701675677</v>
+        <v>2.13131445017533</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>44.84513293839549</v>
+        <v>33.16876793802319</v>
       </c>
       <c r="J25">
-        <v>11.30254032045498</v>
+        <v>6.515143712115931</v>
       </c>
       <c r="K25">
-        <v>27.11362304759333</v>
+        <v>26.25000245282834</v>
       </c>
       <c r="L25">
-        <v>10.56501627319551</v>
+        <v>5.974727694354256</v>
       </c>
       <c r="M25">
         <v>0</v>
